--- a/DATA_goal/Junction_Flooding_80.xlsx
+++ b/DATA_goal/Junction_Flooding_80.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41512.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.37</v>
+        <v>4.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.31</v>
+        <v>3.43</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>50.4</v>
+        <v>5.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>230.71</v>
+        <v>23.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.5</v>
+        <v>4.35</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.77</v>
+        <v>2.88</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.32</v>
+        <v>2.53</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>44.68</v>
+        <v>4.47</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41512.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.05</v>
+        <v>2.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>95.7</v>
+        <v>9.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.62</v>
+        <v>2.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41512.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.49</v>
+        <v>2.25</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41512.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.11</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>36.06</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>46.13</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>190.65</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>36.23</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>11.1</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.5</v>
+        <v>4.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41512.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>9.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>20.51</v>
+        <v>2.05</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>56.81</v>
+        <v>5.68</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41512.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>41.34</v>
+        <v>4.13</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.94</v>
+        <v>3.39</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>54.68</v>
+        <v>5.47</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>219.28</v>
+        <v>21.93</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>41.54</v>
+        <v>4.15</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.96</v>
+        <v>2.8</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>49.42</v>
+        <v>4.94</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41512.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>25.25</v>
+        <v>2.53</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>9.15</v>
+        <v>0.91</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>37.73</v>
+        <v>3.77</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>131.17</v>
+        <v>13.12</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>25.53</v>
+        <v>2.55</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>34.4</v>
+        <v>3.44</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41512.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>21.93</v>
+        <v>2.19</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>6.95</v>
+        <v>0.7</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>67.08</v>
+        <v>6.71</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41512.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>44.5</v>
+        <v>4.45</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>36.62</v>
+        <v>3.66</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>59.06</v>
+        <v>5.91</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.78</v>
+        <v>2.48</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.86</v>
+        <v>1.89</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.83</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>236.45</v>
+        <v>23.65</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>44.7</v>
+        <v>4.47</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.16</v>
+        <v>3.02</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>29.23</v>
+        <v>2.92</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.55</v>
+        <v>1.36</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.75</v>
+        <v>1.88</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>53.45</v>
+        <v>5.34</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_80.xlsx
+++ b/DATA_goal/Junction_Flooding_80.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.27</v>
+        <v>32.73</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.51</v>
+        <v>25.13</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.61</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17.57</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.36</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.6</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.27</v>
+        <v>32.66</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.58</v>
+        <v>45.85</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.51</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.23</v>
+        <v>62.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.39</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.34</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.94</v>
+        <v>19.39</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.34</v>
+        <v>23.37</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>24.45</v>
+        <v>244.48</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.62</v>
+        <v>46.25</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.08</v>
+        <v>30.77</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.05</v>
+        <v>30.48</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.69</v>
+        <v>56.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.89</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.41</v>
+        <v>34.14</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.12</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.29</v>
+        <v>112.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.22</v>
+        <v>22.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.94</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.14</v>
+        <v>31.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.99</v>
+        <v>49.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_80.xlsx
+++ b/DATA_goal/Junction_Flooding_80.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.11</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.72</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.73</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.13</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.94</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>36.36</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.18</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.93</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.61</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.61</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.12</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.76</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>33.36</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.6</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.54</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.93</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.42</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.61</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
         <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.66</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>15.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.93</v>
+        <v>1.934</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.85</v>
+        <v>45.849</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.82</v>
+        <v>36.823</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.51</v>
+        <v>16.509</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>62.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>11.15</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.39</v>
+        <v>16.395</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.34</v>
+        <v>18.339</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.39</v>
+        <v>19.391</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.31</v>
+        <v>5.314</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>23.37</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.18</v>
+        <v>14.184</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.511</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.162</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>244.48</v>
+        <v>244.476</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>46.25</v>
+        <v>46.246</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.77</v>
+        <v>30.768</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.35</v>
+        <v>16.349</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.812</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.48</v>
+        <v>30.479</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.06</v>
+        <v>12.062</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.23</v>
+        <v>14.232</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.28</v>
+        <v>19.284</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>56.93</v>
+        <v>56.933</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.44</v>
+        <v>8.444000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>19.09</v>
@@ -863,103 +863,103 @@
         <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.13</v>
+        <v>7.126</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.096</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.89</v>
+        <v>21.891</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.34</v>
+        <v>17.337</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.83</v>
+        <v>7.834</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.14</v>
+        <v>34.139</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>5.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.64</v>
+        <v>7.639</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.76</v>
+        <v>8.763</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.286</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.54</v>
+        <v>2.539</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.12</v>
+        <v>11.123</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>6.9</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.955</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.87</v>
+        <v>112.866</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.21</v>
+        <v>22.212</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>14.66</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.82</v>
+        <v>7.821</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.464</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.94</v>
+        <v>15.937</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.82</v>
+        <v>5.823</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.86</v>
+        <v>6.858</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.207000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.39</v>
+        <v>31.392</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.97</v>
+        <v>3.967</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_80.xlsx
+++ b/DATA_goal/Junction_Flooding_80.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,10 +967,10 @@
         <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.8</v>
+        <v>4.804</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.27</v>
+        <v>3.271</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.71</v>
@@ -979,46 +979,46 @@
         <v>10.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.026</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>3.69</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.84</v>
+        <v>17.841</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.817</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.47</v>
+        <v>2.475</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.47</v>
+        <v>3.469</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.17</v>
+        <v>4.172</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.44</v>
+        <v>4.441</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.213</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.27</v>
+        <v>5.269</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.4</v>
+        <v>3.399</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>49.92</v>
@@ -1030,40 +1030,144 @@
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.95</v>
+        <v>6.953</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.74</v>
+        <v>3.739</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>8.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.07</v>
+        <v>3.065</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>2.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.33</v>
+        <v>3.326</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>4.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.51</v>
+        <v>16.512</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_80.xlsx
+++ b/DATA_goal/Junction_Flooding_80.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,10 +967,10 @@
         <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.804</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.271</v>
+        <v>3.27</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.71</v>
@@ -979,46 +979,46 @@
         <v>10.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.026</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>3.69</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.841</v>
+        <v>17.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.817</v>
+        <v>5.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.475</v>
+        <v>2.47</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.469</v>
+        <v>3.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.441</v>
+        <v>4.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.213</v>
+        <v>1.21</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.269</v>
+        <v>5.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.399</v>
+        <v>3.4</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>49.92</v>
@@ -1030,144 +1030,40 @@
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.953</v>
+        <v>6.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.739</v>
+        <v>3.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>8.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.065</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>2.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.326</v>
+        <v>3.33</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>4.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.512</v>
+        <v>16.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.832</v>
+        <v>1.83</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.45</v>
       </c>
     </row>
   </sheetData>
